--- a/exportorv2/example/Globals.xlsx
+++ b/exportorv2/example/Globals.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\wukong\server\src\github.com\davyxu\tabtoy\exportorv2\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luffyyzhang/WorkSpace/tabtoy/exportorv2/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340"/>
+    <workbookView xWindow="-36940" yWindow="2960" windowWidth="24280" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="@Types" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
     <author>Davy</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="1" shapeId="0">
+    <comment ref="E2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -309,16 +312,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,17 +714,17 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D4" sqref="D4:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
-    <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -753,7 +756,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -882,7 +885,7 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
